--- a/web-site/WebContent/excel/solution/municipal_administration.xlsx
+++ b/web-site/WebContent/excel/solution/municipal_administration.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12240" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>机场</t>
   </si>
@@ -58,9 +58,6 @@
     <t>硫化氢</t>
   </si>
   <si>
-    <t>二恶英</t>
-  </si>
-  <si>
     <t>未燃烧的碳氢化合物</t>
   </si>
   <si>
@@ -100,7 +97,8 @@
     <t>粉尘</t>
   </si>
   <si>
-    <t>不完全燃烧物</t>
+    <t>二噁英</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -257,10 +255,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -268,10 +266,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -599,13 +602,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" thickBot="1">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -620,8 +623,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17" thickBot="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -637,8 +640,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="17" thickBot="1">
-      <c r="A3" s="6"/>
+    <row r="3" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -649,73 +652,71 @@
         <v>11</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="17" thickBot="1">
-      <c r="A4" s="6"/>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="4" t="s">
+    <row r="5" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="4" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="17" thickBot="1">
-      <c r="A5" s="6"/>
-      <c r="B5" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
     </row>
-    <row r="6" spans="1:5" ht="17" thickBot="1">
-      <c r="A6" s="6"/>
+    <row r="6" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>21</v>
-      </c>
     </row>
-    <row r="7" spans="1:5" ht="17" thickBot="1">
+    <row r="7" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
       <c r="D7" s="5"/>
       <c r="E7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="18" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="17" thickBot="1">
-      <c r="A8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="D8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="E8" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -735,9 +736,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
